--- a/Ejercicios para practicar/1. Ejercicios funciones de agregación.xlsx
+++ b/Ejercicios para practicar/1. Ejercicios funciones de agregación.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dagui\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dataxbi-my.sharepoint.com/personal/dataxbi_dataxbi_com/Documents/Formación/ICONO TC/Curso Excel Nivel Medio/Excel-nivel-Intermedio-LogiRail/Ejercicios para practicar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D23F3F9-34C5-4174-B039-D40EB18F97AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{0D23F3F9-34C5-4174-B039-D40EB18F97AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5FF0716-E941-4478-BDA7-D1752C58A8D9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,142 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -525,7 +660,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,10 +722,22 @@
       <c r="G2" s="2">
         <v>165</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
+      <c r="H2" s="2">
+        <f>SUM(B2:G2)</f>
+        <v>1015</v>
+      </c>
+      <c r="I2" s="2">
+        <f>MAX(B2:G2)</f>
+        <v>210</v>
+      </c>
+      <c r="J2" s="2">
+        <f>MIN(B2:G2)</f>
+        <v>145</v>
+      </c>
+      <c r="K2" s="3">
+        <f>AVERAGE(B2:G2)</f>
+        <v>169.16666666666666</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -614,10 +761,22 @@
       <c r="G3" s="2">
         <v>200</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
+        <v>1046</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I6" si="1">MAX(B3:G3)</f>
+        <v>200</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J6" si="2">MIN(B3:G3)</f>
+        <v>130</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K6" si="3">AVERAGE(B3:G3)</f>
+        <v>174.33333333333334</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -641,10 +800,22 @@
       <c r="G4" s="2">
         <v>156</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="3"/>
+        <v>133.33333333333334</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -668,10 +839,22 @@
       <c r="G5" s="2">
         <v>103</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>612</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -695,10 +878,22 @@
       <c r="G6" s="2">
         <v>88</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -760,6 +955,34 @@
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:E14"/>
   </mergeCells>
+  <conditionalFormatting sqref="B2:B6">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
+      <formula>170</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B6">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+      <formula>100</formula>
+      <formula>170</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:G6">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>170</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:G6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>100</formula>
+      <formula>170</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -770,7 +993,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,14 +1289,14 @@
     <mergeCell ref="A15:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:K6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>170</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="between">
       <formula>100</formula>
       <formula>170</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
